--- a/biology/Zoologie/Burmuloborus_parvus/Burmuloborus_parvus.xlsx
+++ b/biology/Zoologie/Burmuloborus_parvus/Burmuloborus_parvus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Burmuloborus parvus est une espèce éteinte d'araignées aranéomorphes de la famille des Uloboridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Burmuloborus parvus est une espèce éteinte d'araignées aranéomorphes de la famille des Uloboridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été découverte dans de l'ambre de Birmanie. Elle date du Crétacé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte dans de l'ambre de Birmanie. Elle date du Crétacé.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Wunderlich, 2008 : The dominance of ancient spider families of the Araneae: Haplogyne in the Cretaceous, and the late diversification of advanced ecribellate spiders of the Entelegynae after the Cretaceous–Tertiary boundary extinction events, with descriptions of new families. Beiträge zur Araneologie, vol. 5, p. 524–675 (en).</t>
         </is>
